--- a/lab3/Experiment 2/allsweeps.xlsx
+++ b/lab3/Experiment 2/allsweeps.xlsx
@@ -11,7 +11,6 @@
     <sheet name="IC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2605,11 +2604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44968192"/>
-        <c:axId val="44971072"/>
+        <c:axId val="69046784"/>
+        <c:axId val="69047360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44968192"/>
+        <c:axId val="69046784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -2653,12 +2652,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44971072"/>
+        <c:crossAx val="69047360"/>
         <c:crossesAt val="-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44971072"/>
+        <c:axId val="69047360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44968192"/>
+        <c:crossAx val="69046784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2709,8 +2708,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11292886422822723"/>
-          <c:y val="0.77184973090484899"/>
+          <c:x val="0.1722704941275969"/>
+          <c:y val="0.69525392304685318"/>
           <c:w val="0.29339723482770114"/>
           <c:h val="0.15433654126567511"/>
         </c:manualLayout>
@@ -3450,11 +3449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44973376"/>
-        <c:axId val="61153280"/>
+        <c:axId val="69049664"/>
+        <c:axId val="111484928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44973376"/>
+        <c:axId val="69049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -3495,12 +3494,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61153280"/>
+        <c:crossAx val="111484928"/>
         <c:crossesAt val="-5.000000000000001E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61153280"/>
+        <c:axId val="111484928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44973376"/>
+        <c:crossAx val="69049664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3573,6 +3572,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3608,7 +3612,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Collector Current with 1070</a:t>
+              <a:t>Collector Current with 10k</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
@@ -4289,11 +4293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61155008"/>
-        <c:axId val="61155584"/>
+        <c:axId val="111486656"/>
+        <c:axId val="111487232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61155008"/>
+        <c:axId val="111486656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -4334,12 +4338,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61155584"/>
+        <c:crossAx val="111487232"/>
         <c:crossesAt val="-6.0000000000000016E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61155584"/>
+        <c:axId val="111487232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61155008"/>
+        <c:crossAx val="111486656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4415,6 +4419,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4471,7 +4480,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Collector Current with 10k</a:t>
+              <a:t>Collector Current with 330</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1800" b="1" i="0" baseline="0">
@@ -4543,8 +4552,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.20736676336510568"/>
-                  <c:y val="-0.58808291381610089"/>
+                  <c:x val="-0.25065478657273105"/>
+                  <c:y val="-0.57246783701217674"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5110,11 +5119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61157312"/>
-        <c:axId val="61157888"/>
+        <c:axId val="111488960"/>
+        <c:axId val="111489536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61157312"/>
+        <c:axId val="111488960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -5155,12 +5164,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61157888"/>
+        <c:crossAx val="111489536"/>
         <c:crossesAt val="-1.4000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61157888"/>
+        <c:axId val="111489536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61157312"/>
+        <c:crossAx val="111488960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5236,6 +5245,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5279,15 +5293,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5659,7 +5673,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,15 +5768,15 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U33" si="0">T2-S3</f>
+        <f>T2-S3</f>
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V33" si="1">U2-T2</f>
+        <f>U2-T2</f>
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <f t="shared" ref="W2:W33" si="2">V2-U2</f>
+        <f t="shared" ref="W2:W33" si="0">V2-U2</f>
         <v>0</v>
       </c>
       <c r="Y2" s="1">
@@ -5809,15 +5823,15 @@
         <v>0.05</v>
       </c>
       <c r="U3" s="1">
+        <f t="shared" ref="U2:U33" si="1">T3-S4</f>
+        <v>0.05</v>
+      </c>
+      <c r="V3" s="1">
+        <f>U3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="V3" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
       <c r="Y3" s="1">
@@ -5844,7 +5858,7 @@
         <v>-6E-10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J67" si="3">I4-H4</f>
+        <f t="shared" ref="J4:J67" si="2">I4-H4</f>
         <v>-1.31E-8</v>
       </c>
       <c r="K4" s="1"/>
@@ -5855,7 +5869,7 @@
         <v>-4.0000000000000001E-10</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P67" si="4">O4-N4</f>
+        <f t="shared" ref="P4:P67" si="3">O4-N4</f>
         <v>-1.28E-8</v>
       </c>
       <c r="Q4" s="1"/>
@@ -5864,15 +5878,15 @@
         <v>0.1</v>
       </c>
       <c r="U4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="V4" s="1">
+        <f>U4-T4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="Y4" s="1">
@@ -5899,7 +5913,7 @@
         <v>-5.0000000000000003E-10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.33E-8</v>
       </c>
       <c r="K5" s="1"/>
@@ -5910,7 +5924,7 @@
         <v>-4.0000000000000001E-10</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.5799999999999999E-8</v>
       </c>
       <c r="Q5" s="1"/>
@@ -5919,15 +5933,15 @@
         <v>0.15</v>
       </c>
       <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" ref="V2:V33" si="4">U5-T5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" si="2"/>
         <v>-0.15</v>
       </c>
       <c r="Y5" s="1">
@@ -5954,7 +5968,7 @@
         <v>-6E-10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.4900000000000001E-8</v>
       </c>
       <c r="K6" s="1"/>
@@ -5965,7 +5979,7 @@
         <v>-6E-10</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.8299999999999998E-8</v>
       </c>
       <c r="Q6" s="1"/>
@@ -5974,15 +5988,15 @@
         <v>0.2</v>
       </c>
       <c r="U6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="2"/>
         <v>-0.2</v>
       </c>
       <c r="X6">
@@ -6012,7 +6026,7 @@
         <v>-8.9999999999999999E-10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.7200000000000002E-8</v>
       </c>
       <c r="K7" s="1"/>
@@ -6023,7 +6037,7 @@
         <v>-6.9999999999999996E-10</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.1599999999999998E-8</v>
       </c>
       <c r="Q7" s="1"/>
@@ -6032,15 +6046,15 @@
         <v>0.25</v>
       </c>
       <c r="U7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
       <c r="X7">
@@ -6070,7 +6084,7 @@
         <v>-8.0000000000000003E-10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.77E-8</v>
       </c>
       <c r="K8" s="1"/>
@@ -6081,7 +6095,7 @@
         <v>-6.9999999999999996E-10</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.4100000000000001E-8</v>
       </c>
       <c r="Q8" s="1"/>
@@ -6090,15 +6104,15 @@
         <v>0.3</v>
       </c>
       <c r="U8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="X8">
@@ -6128,7 +6142,7 @@
         <v>-2.2999999999999999E-9</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.22E-8</v>
       </c>
       <c r="K9" s="1"/>
@@ -6139,7 +6153,7 @@
         <v>-2.1000000000000002E-9</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.5399999999999999E-8</v>
       </c>
       <c r="Q9" s="1"/>
@@ -6148,15 +6162,15 @@
         <v>0.35</v>
       </c>
       <c r="U9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="2"/>
         <v>-0.35</v>
       </c>
       <c r="X9">
@@ -6186,7 +6200,7 @@
         <v>-1.2E-8</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.7599999999999999E-8</v>
       </c>
       <c r="K10" s="1"/>
@@ -6197,7 +6211,7 @@
         <v>-1.2100000000000001E-8</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.84E-8</v>
       </c>
       <c r="Q10" s="1"/>
@@ -6206,15 +6220,15 @@
         <v>0.4</v>
       </c>
       <c r="U10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="V10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" si="2"/>
         <v>-0.4</v>
       </c>
       <c r="X10">
@@ -6244,7 +6258,7 @@
         <v>-7.7400000000000005E-8</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.2030000000000001E-7</v>
       </c>
       <c r="K11" s="1"/>
@@ -6255,7 +6269,7 @@
         <v>-7.7999999999999997E-8</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.2349999999999999E-7</v>
       </c>
       <c r="Q11" s="1"/>
@@ -6264,15 +6278,15 @@
         <v>0.45</v>
       </c>
       <c r="U11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="V11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" si="2"/>
         <v>-0.45</v>
       </c>
       <c r="X11">
@@ -6302,7 +6316,7 @@
         <v>-5.2E-7</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.6369999999999999E-7</v>
       </c>
       <c r="K12" s="1"/>
@@ -6313,7 +6327,7 @@
         <v>-4.6199999999999998E-7</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.9089999999999992E-7</v>
       </c>
       <c r="Q12" s="1"/>
@@ -6322,15 +6336,15 @@
         <v>0.5</v>
       </c>
       <c r="U12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="X12">
@@ -6360,7 +6374,7 @@
         <v>-3.23E-6</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.0600000000000001E-6</v>
       </c>
       <c r="K13" s="1"/>
@@ -6371,7 +6385,7 @@
         <v>-1.8780000000000001E-6</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.362E-6</v>
       </c>
       <c r="Q13" s="1"/>
@@ -6380,15 +6394,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <f t="shared" si="2"/>
         <v>-0.55000000000000004</v>
       </c>
       <c r="X13">
@@ -6418,7 +6432,7 @@
         <v>-1.429E-5</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.7799999999999999E-5</v>
       </c>
       <c r="K14" s="1"/>
@@ -6429,7 +6443,7 @@
         <v>-4.5700000000000003E-6</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.7390000000000004E-6</v>
       </c>
       <c r="Q14" s="1"/>
@@ -6438,15 +6452,15 @@
         <v>0.6</v>
       </c>
       <c r="U14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="V14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <f t="shared" si="2"/>
         <v>-0.6</v>
       </c>
       <c r="X14">
@@ -6476,7 +6490,7 @@
         <v>-3.7499999999999997E-5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.6139999999999995E-5</v>
       </c>
       <c r="K15" s="1"/>
@@ -6487,7 +6501,7 @@
         <v>-8.1200000000000002E-6</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.0190000000000001E-5</v>
       </c>
       <c r="Q15" s="1"/>
@@ -6496,15 +6510,15 @@
         <v>0.65</v>
       </c>
       <c r="U15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="2"/>
         <v>-0.65</v>
       </c>
       <c r="X15">
@@ -6534,7 +6548,7 @@
         <v>-6.8499999999999998E-5</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.3440000000000001E-5</v>
       </c>
       <c r="K16" s="1"/>
@@ -6545,7 +6559,7 @@
         <v>-1.205E-5</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.507E-5</v>
       </c>
       <c r="Q16" s="1"/>
@@ -6554,15 +6568,15 @@
         <v>0.7</v>
       </c>
       <c r="U16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="2"/>
         <v>-0.7</v>
       </c>
       <c r="X16">
@@ -6598,7 +6612,7 @@
         <v>-1.049E-4</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.27E-4</v>
       </c>
       <c r="K17" s="1"/>
@@ -6609,7 +6623,7 @@
         <v>-1.6249999999999999E-5</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.0289999999999997E-5</v>
       </c>
       <c r="Q17" s="1"/>
@@ -6618,15 +6632,15 @@
         <v>0.75</v>
       </c>
       <c r="U17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="2"/>
         <v>-0.75</v>
       </c>
       <c r="X17">
@@ -6668,7 +6682,7 @@
         <v>-1.427E-4</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.7149999999999999E-4</v>
       </c>
       <c r="K18" s="1">
@@ -6686,7 +6700,7 @@
         <v>-2.0699999999999998E-5</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.5769999999999999E-5</v>
       </c>
       <c r="Q18" s="1">
@@ -6701,15 +6715,15 @@
         <v>0.8</v>
       </c>
       <c r="U18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" si="2"/>
         <v>-0.8</v>
       </c>
       <c r="X18">
@@ -6751,7 +6765,7 @@
         <v>-1.827E-4</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.1829999999999999E-4</v>
       </c>
       <c r="K19" s="1">
@@ -6769,7 +6783,7 @@
         <v>-2.51E-5</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.1229999999999997E-5</v>
       </c>
       <c r="Q19" s="1">
@@ -6784,15 +6798,15 @@
         <v>0.85</v>
       </c>
       <c r="U19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
         <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="V19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="2"/>
         <v>-0.85</v>
       </c>
       <c r="X19">
@@ -6834,7 +6848,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.6259999999999999E-4</v>
       </c>
       <c r="K20" s="1">
@@ -6852,7 +6866,7 @@
         <v>-2.97E-5</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.6890000000000001E-5</v>
       </c>
       <c r="Q20" s="1">
@@ -6867,15 +6881,15 @@
         <v>0.9</v>
       </c>
       <c r="U20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" si="2"/>
         <v>-0.9</v>
       </c>
       <c r="X20">
@@ -6917,7 +6931,7 @@
         <v>-2.61E-4</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.102E-4</v>
       </c>
       <c r="K21" s="1">
@@ -6935,7 +6949,7 @@
         <v>-3.43E-5</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-4.2540000000000003E-5</v>
       </c>
       <c r="Q21" s="1">
@@ -6950,15 +6964,15 @@
         <v>0.95</v>
       </c>
       <c r="U21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="2"/>
         <v>-0.95</v>
       </c>
       <c r="X21">
@@ -7000,7 +7014,7 @@
         <v>-3.0400000000000002E-4</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.5980000000000002E-4</v>
       </c>
       <c r="K22" s="1">
@@ -7018,7 +7032,7 @@
         <v>-3.8899999999999997E-5</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-4.8210000000000001E-5</v>
       </c>
       <c r="Q22" s="1">
@@ -7033,15 +7047,15 @@
         <v>1</v>
       </c>
       <c r="U22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="X22">
@@ -7083,7 +7097,7 @@
         <v>-3.4699999999999998E-4</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.0939999999999998E-4</v>
       </c>
       <c r="K23" s="1">
@@ -7101,7 +7115,7 @@
         <v>-4.3699999999999998E-5</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.4089999999999999E-5</v>
       </c>
       <c r="Q23" s="1">
@@ -7116,15 +7130,15 @@
         <v>1.05</v>
       </c>
       <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
         <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" si="2"/>
         <v>-1.05</v>
       </c>
       <c r="X23">
@@ -7166,7 +7180,7 @@
         <v>-3.9100000000000002E-4</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.6000000000000001E-4</v>
       </c>
       <c r="K24" s="1">
@@ -7184,7 +7198,7 @@
         <v>-4.85E-5</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.9969999999999997E-5</v>
       </c>
       <c r="Q24" s="1">
@@ -7199,15 +7213,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="U24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="2"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="X24">
@@ -7249,7 +7263,7 @@
         <v>-4.35E-4</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.1059999999999994E-4</v>
       </c>
       <c r="K25" s="1">
@@ -7267,7 +7281,7 @@
         <v>-5.3199999999999999E-5</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-6.5740000000000004E-5</v>
       </c>
       <c r="Q25" s="1">
@@ -7282,15 +7296,15 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="U25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="2"/>
         <v>-1.1499999999999999</v>
       </c>
       <c r="X25">
@@ -7332,7 +7346,7 @@
         <v>-4.7800000000000002E-4</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.6000000000000006E-4</v>
       </c>
       <c r="K26" s="1">
@@ -7350,7 +7364,7 @@
         <v>-5.8E-5</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-7.161E-5</v>
       </c>
       <c r="Q26" s="1">
@@ -7365,15 +7379,15 @@
         <v>1.2</v>
       </c>
       <c r="U26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" si="2"/>
         <v>-1.2</v>
       </c>
       <c r="X26">
@@ -7415,7 +7429,7 @@
         <v>-5.22E-4</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.1039999999999998E-4</v>
       </c>
       <c r="K27" s="1">
@@ -7433,7 +7447,7 @@
         <v>-6.2700000000000006E-5</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-7.737E-5</v>
       </c>
       <c r="Q27" s="1">
@@ -7448,15 +7462,15 @@
         <v>1.25</v>
       </c>
       <c r="U27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" si="2"/>
         <v>-1.25</v>
       </c>
       <c r="X27">
@@ -7498,7 +7512,7 @@
         <v>-5.6599999999999999E-4</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.6080000000000002E-4</v>
       </c>
       <c r="K28" s="1">
@@ -7516,7 +7530,7 @@
         <v>-6.7600000000000003E-5</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-8.3330000000000003E-5</v>
       </c>
       <c r="Q28" s="1">
@@ -7531,15 +7545,15 @@
         <v>1.3</v>
       </c>
       <c r="U28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
         <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="V28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <f t="shared" si="2"/>
         <v>-1.3</v>
       </c>
       <c r="X28">
@@ -7581,7 +7595,7 @@
         <v>-6.11E-4</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-7.1210000000000002E-4</v>
       </c>
       <c r="K29" s="1">
@@ -7599,7 +7613,7 @@
         <v>-7.2399999999999998E-5</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-8.92E-5</v>
       </c>
       <c r="Q29" s="1">
@@ -7614,15 +7628,15 @@
         <v>1.35</v>
       </c>
       <c r="U29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
         <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-      <c r="V29" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <f t="shared" si="2"/>
         <v>-1.35</v>
       </c>
       <c r="X29">
@@ -7664,7 +7678,7 @@
         <v>-6.5499999999999998E-4</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-7.6239999999999999E-4</v>
       </c>
       <c r="K30" s="1">
@@ -7682,7 +7696,7 @@
         <v>-7.7200000000000006E-5</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.5050000000000006E-5</v>
       </c>
       <c r="Q30" s="1">
@@ -7697,15 +7711,15 @@
         <v>1.4</v>
       </c>
       <c r="U30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
         <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="V30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <f t="shared" si="2"/>
         <v>-1.4</v>
       </c>
       <c r="X30">
@@ -7747,7 +7761,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.1379999999999994E-4</v>
       </c>
       <c r="K31" s="1">
@@ -7765,7 +7779,7 @@
         <v>-8.2100000000000003E-5</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.0101000000000001E-4</v>
       </c>
       <c r="Q31" s="1">
@@ -7780,15 +7794,15 @@
         <v>1.45</v>
       </c>
       <c r="U31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
         <f t="shared" si="0"/>
-        <v>1.45</v>
-      </c>
-      <c r="V31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="1">
-        <f t="shared" si="2"/>
         <v>-1.45</v>
       </c>
       <c r="X31">
@@ -7830,7 +7844,7 @@
         <v>-7.4399999999999998E-4</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.6410000000000002E-4</v>
       </c>
       <c r="K32" s="1">
@@ -7848,7 +7862,7 @@
         <v>-8.7000000000000001E-5</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.0730000000000001E-4</v>
       </c>
       <c r="Q32" s="1">
@@ -7863,15 +7877,15 @@
         <v>1.5</v>
       </c>
       <c r="U32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
       <c r="X32">
@@ -7913,7 +7927,7 @@
         <v>-7.8899999999999999E-4</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.1549999999999997E-4</v>
       </c>
       <c r="K33" s="1">
@@ -7931,7 +7945,7 @@
         <v>-9.1899999999999998E-5</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.132E-4</v>
       </c>
       <c r="Q33" s="1">
@@ -7946,15 +7960,15 @@
         <v>1.55</v>
       </c>
       <c r="U33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
         <f t="shared" si="0"/>
-        <v>1.55</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="1">
-        <f t="shared" si="2"/>
         <v>-1.55</v>
       </c>
       <c r="X33">
@@ -7996,7 +8010,7 @@
         <v>-8.3500000000000002E-4</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.6790000000000005E-4</v>
       </c>
       <c r="K34" s="1">
@@ -8014,7 +8028,7 @@
         <v>-9.6899999999999997E-5</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.193E-4</v>
       </c>
       <c r="Q34" s="1">
@@ -8079,7 +8093,7 @@
         <v>-8.7900000000000001E-4</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.0181999999999999E-3</v>
       </c>
       <c r="K35" s="1">
@@ -8097,7 +8111,7 @@
         <v>-1.0170000000000001E-4</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.2520000000000001E-4</v>
       </c>
       <c r="Q35" s="1">
@@ -8162,7 +8176,7 @@
         <v>-9.2500000000000004E-4</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.0706000000000001E-3</v>
       </c>
       <c r="K36" s="1">
@@ -8180,7 +8194,7 @@
         <v>-1.066E-4</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.3109999999999999E-4</v>
       </c>
       <c r="Q36" s="1">
@@ -8245,7 +8259,7 @@
         <v>-9.6900000000000003E-4</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.1207000000000001E-3</v>
       </c>
       <c r="K37" s="1">
@@ -8263,7 +8277,7 @@
         <v>-1.114E-4</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.37E-4</v>
       </c>
       <c r="Q37" s="1">
@@ -8328,7 +8342,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.1719999999999999E-3</v>
       </c>
       <c r="K38" s="1">
@@ -8346,7 +8360,7 @@
         <v>-1.1629999999999999E-4</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.429E-4</v>
       </c>
       <c r="Q38" s="1">
@@ -8411,7 +8425,7 @@
         <v>-1.06E-3</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.2243E-3</v>
       </c>
       <c r="K39" s="1">
@@ -8429,7 +8443,7 @@
         <v>-1.2120000000000001E-4</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.4890000000000001E-4</v>
       </c>
       <c r="Q39" s="1">
@@ -8494,7 +8508,7 @@
         <v>-1.1039999999999999E-3</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.2745E-3</v>
       </c>
       <c r="K40" s="1">
@@ -8512,7 +8526,7 @@
         <v>-1.26E-4</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.5469999999999999E-4</v>
       </c>
       <c r="Q40" s="1">
@@ -8577,7 +8591,7 @@
         <v>-1.1490000000000001E-3</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.3257E-3</v>
       </c>
       <c r="K41" s="1">
@@ -8595,7 +8609,7 @@
         <v>-1.3100000000000001E-4</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.607E-4</v>
       </c>
       <c r="Q41" s="1">
@@ -8660,7 +8674,7 @@
         <v>-1.194E-3</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.3768999999999999E-3</v>
       </c>
       <c r="K42" s="1">
@@ -8678,7 +8692,7 @@
         <v>-1.3579999999999999E-4</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.6649999999999998E-4</v>
       </c>
       <c r="Q42" s="1">
@@ -8743,7 +8757,7 @@
         <v>-1.238E-3</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.4269E-3</v>
       </c>
       <c r="K43" s="1">
@@ -8761,7 +8775,7 @@
         <v>-1.405E-4</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.7220000000000001E-4</v>
       </c>
       <c r="Q43" s="1">
@@ -8826,7 +8840,7 @@
         <v>-1.2819999999999999E-3</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.4770999999999999E-3</v>
       </c>
       <c r="K44" s="1">
@@ -8844,7 +8858,7 @@
         <v>-1.4540000000000001E-4</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.7819999999999999E-4</v>
       </c>
       <c r="Q44" s="1">
@@ -8909,7 +8923,7 @@
         <v>-1.33E-3</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.534E-3</v>
       </c>
       <c r="K45" s="1">
@@ -8927,7 +8941,7 @@
         <v>-1.5029999999999999E-4</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.841E-4</v>
       </c>
       <c r="Q45" s="1">
@@ -8992,7 +9006,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.585E-3</v>
       </c>
       <c r="K46" s="1">
@@ -9010,7 +9024,7 @@
         <v>-1.5530000000000001E-4</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.9010000000000001E-4</v>
       </c>
       <c r="Q46" s="1">
@@ -9075,7 +9089,7 @@
         <v>-1.4220000000000001E-3</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.6380000000000001E-3</v>
       </c>
       <c r="K47" s="1">
@@ -9093,7 +9107,7 @@
         <v>-1.6019999999999999E-4</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.961E-4</v>
       </c>
       <c r="Q47" s="1">
@@ -9158,7 +9172,7 @@
         <v>-1.4679999999999999E-3</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.6899999999999999E-3</v>
       </c>
       <c r="K48" s="1">
@@ -9176,7 +9190,7 @@
         <v>-1.651E-4</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.02E-4</v>
       </c>
       <c r="Q48" s="1">
@@ -9241,7 +9255,7 @@
         <v>-1.513E-3</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.7409999999999999E-3</v>
       </c>
       <c r="K49" s="1">
@@ -9259,7 +9273,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.0790000000000001E-4</v>
       </c>
       <c r="Q49" s="1">
@@ -9324,7 +9338,7 @@
         <v>-1.5579999999999999E-3</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.792E-3</v>
       </c>
       <c r="K50" s="1">
@@ -9342,7 +9356,7 @@
         <v>-1.749E-4</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.1379999999999999E-4</v>
       </c>
       <c r="Q50" s="1">
@@ -9407,7 +9421,7 @@
         <v>-1.603E-3</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.843E-3</v>
       </c>
       <c r="K51" s="1">
@@ -9425,7 +9439,7 @@
         <v>-1.797E-4</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.197E-4</v>
       </c>
       <c r="Q51" s="1">
@@ -9490,7 +9504,7 @@
         <v>-1.6479999999999999E-3</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.8939999999999999E-3</v>
       </c>
       <c r="K52" s="1">
@@ -9508,7 +9522,7 @@
         <v>-1.8459999999999999E-4</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.2559999999999998E-4</v>
       </c>
       <c r="Q52" s="1">
@@ -9573,7 +9587,7 @@
         <v>-1.694E-3</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.9469999999999999E-3</v>
       </c>
       <c r="K53" s="1">
@@ -9591,7 +9605,7 @@
         <v>-1.895E-4</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.3149999999999999E-4</v>
       </c>
       <c r="Q53" s="1">
@@ -9656,7 +9670,7 @@
         <v>-1.74E-3</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.9989999999999999E-3</v>
       </c>
       <c r="K54" s="1">
@@ -9674,7 +9688,7 @@
         <v>-1.9440000000000001E-4</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.3740000000000002E-4</v>
       </c>
       <c r="Q54" s="1">
@@ -9739,7 +9753,7 @@
         <v>-1.7849999999999999E-3</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.0499999999999997E-3</v>
       </c>
       <c r="K55" s="1">
@@ -9757,7 +9771,7 @@
         <v>-1.9919999999999999E-4</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.433E-4</v>
       </c>
       <c r="Q55" s="1">
@@ -9822,7 +9836,7 @@
         <v>-1.83E-3</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.101E-3</v>
       </c>
       <c r="K56" s="1">
@@ -9840,7 +9854,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.452E-4</v>
       </c>
       <c r="Q56" s="1">
@@ -9905,7 +9919,7 @@
         <v>-1.8749999999999999E-3</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.1519999999999998E-3</v>
       </c>
       <c r="K57" s="1">
@@ -9923,7 +9937,7 @@
         <v>-2.05E-4</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.5119999999999998E-4</v>
       </c>
       <c r="Q57" s="1">
@@ -9988,7 +10002,7 @@
         <v>-1.921E-3</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.2039999999999998E-3</v>
       </c>
       <c r="K58" s="1">
@@ -10006,7 +10020,7 @@
         <v>-2.1000000000000001E-4</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.5720000000000002E-4</v>
       </c>
       <c r="Q58" s="1">
@@ -10071,7 +10085,7 @@
         <v>-1.9659999999999999E-3</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.2550000000000001E-3</v>
       </c>
       <c r="K59" s="1">
@@ -10089,7 +10103,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.633E-4</v>
       </c>
       <c r="Q59" s="1">
@@ -10154,7 +10168,7 @@
         <v>-1.99E-3</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.287E-3</v>
       </c>
       <c r="K60" s="1">
@@ -10172,7 +10186,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.6929999999999999E-4</v>
       </c>
       <c r="Q60" s="1">
@@ -10235,7 +10249,7 @@
         <v>-2.0400000000000001E-3</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.343E-3</v>
       </c>
       <c r="K61" s="1">
@@ -10253,7 +10267,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.7530000000000002E-4</v>
       </c>
       <c r="Q61" s="1">
@@ -10316,7 +10330,7 @@
         <v>-2.0799999999999998E-3</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.3889999999999996E-3</v>
       </c>
       <c r="K62" s="1">
@@ -10334,7 +10348,7 @@
         <v>-2.2900000000000001E-4</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.8030000000000004E-4</v>
       </c>
       <c r="Q62" s="1">
@@ -10397,7 +10411,7 @@
         <v>-2.1299999999999999E-3</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.4459999999999998E-3</v>
       </c>
       <c r="K63" s="1">
@@ -10415,7 +10429,7 @@
         <v>-2.3499999999999999E-4</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.8729999999999999E-4</v>
       </c>
       <c r="Q63" s="1">
@@ -10478,7 +10492,7 @@
         <v>-2.1700000000000001E-3</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.4920000000000003E-3</v>
       </c>
       <c r="K64" s="1">
@@ -10496,7 +10510,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.9330000000000003E-4</v>
       </c>
       <c r="Q64" s="1">
@@ -10559,7 +10573,7 @@
         <v>-2.2200000000000002E-3</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.5480000000000004E-3</v>
       </c>
       <c r="K65" s="1">
@@ -10577,7 +10591,7 @@
         <v>-2.4399999999999999E-4</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.9839999999999999E-4</v>
       </c>
       <c r="Q65" s="1">
@@ -10640,7 +10654,7 @@
         <v>-2.2699999999999999E-3</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.604E-3</v>
       </c>
       <c r="K66" s="1">
@@ -10658,7 +10672,7 @@
         <v>-2.4899999999999998E-4</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.0429999999999997E-4</v>
       </c>
       <c r="Q66" s="1">
@@ -10721,7 +10735,7 @@
         <v>-2.31E-3</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.65E-3</v>
       </c>
       <c r="K67" s="1">
@@ -10739,7 +10753,7 @@
         <v>-2.5399999999999999E-4</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.1030000000000001E-4</v>
       </c>
       <c r="Q67" s="1">

--- a/lab3/Experiment 2/allsweeps.xlsx
+++ b/lab3/Experiment 2/allsweeps.xlsx
@@ -3355,7 +3355,7 @@
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" baseline="30000"/>
-                      <a:t>38.051x</a:t>
+                      <a:t>38.051x(V)</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" baseline="0"/>
@@ -3862,11 +3862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80928064"/>
-        <c:axId val="42835264"/>
+        <c:axId val="584978944"/>
+        <c:axId val="584979520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80928064"/>
+        <c:axId val="584978944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -3885,12 +3885,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Voltage</a:t>
+                  <a:t>Base Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3910,12 +3909,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42835264"/>
+        <c:crossAx val="584979520"/>
         <c:crossesAt val="-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42835264"/>
+        <c:axId val="584979520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3935,12 +3934,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Collector Current</a:t>
+                  <a:t>Collector Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="0"/>
@@ -3957,7 +3955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80928064"/>
+        <c:crossAx val="584978944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4058,7 +4056,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4117,17 +4114,24 @@
                   <c:y val="6.4489567841969506E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.001x(V) - 0.0006
+R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -4722,11 +4726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109708992"/>
-        <c:axId val="109709568"/>
+        <c:axId val="584981824"/>
+        <c:axId val="578699264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109708992"/>
+        <c:axId val="584981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -4745,12 +4749,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Voltage</a:t>
+                  <a:t>Base Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4767,12 +4770,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109709568"/>
+        <c:crossAx val="578699264"/>
         <c:crossesAt val="-5.000000000000001E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109709568"/>
+        <c:axId val="578699264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,12 +4793,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Collector Current</a:t>
+                  <a:t>Collector Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -4812,7 +4814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109708992"/>
+        <c:crossAx val="584981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4961,17 +4963,24 @@
                   <c:y val="1.9745301393351202E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0001x(V) - 6E-05
+R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -5566,11 +5575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109711296"/>
-        <c:axId val="109711872"/>
+        <c:axId val="578700992"/>
+        <c:axId val="578701568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109711296"/>
+        <c:axId val="578700992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -5589,7 +5598,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Voltage</a:t>
+                  <a:t>Base Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5611,12 +5620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109711872"/>
+        <c:crossAx val="578701568"/>
         <c:crossesAt val="-6.0000000000000016E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109711872"/>
+        <c:axId val="578701568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5634,7 +5643,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Collector Current</a:t>
+                  <a:t>Collector Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5656,7 +5665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109711296"/>
+        <c:crossAx val="578700992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5773,7 +5782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5829,17 +5837,24 @@
                   <c:y val="4.0163719289187209E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.003x(V) - 0.002
+R² = 0.9998</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -6392,11 +6407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109713600"/>
-        <c:axId val="109714176"/>
+        <c:axId val="578703296"/>
+        <c:axId val="578703872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109713600"/>
+        <c:axId val="578703296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.3"/>
@@ -6415,12 +6430,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Voltage</a:t>
+                  <a:t>Base Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6437,12 +6451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109714176"/>
+        <c:crossAx val="578703872"/>
         <c:crossesAt val="-1.4000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109714176"/>
+        <c:axId val="578703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6460,12 +6474,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Collector Current</a:t>
+                  <a:t>Collector Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -6482,7 +6495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109713600"/>
+        <c:crossAx val="578703296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6561,7 +6574,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7210,17 +7222,32 @@
                   <c:y val="-5.4491015546133656E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 7938.6x(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.0018</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.0003</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -7834,17 +7861,32 @@
                   <c:y val="-5.9897435897435895E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 56622x(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.016</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.0369</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -8454,17 +8496,32 @@
                   <c:y val="-7.9196860547170483E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 2166.4x(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>-0.044</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.2913</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -8693,11 +8750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123713152"/>
-        <c:axId val="123712000"/>
+        <c:axId val="578705600"/>
+        <c:axId val="578706176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123713152"/>
+        <c:axId val="578705600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8717,12 +8774,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Current</a:t>
+                  <a:t>Base Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -8739,12 +8795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123712000"/>
+        <c:crossAx val="578706176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123712000"/>
+        <c:axId val="578706176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8764,12 +8820,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Incremental Resistance</a:t>
+                  <a:t>Incremental Resistance (Ohms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -8786,7 +8841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123713152"/>
+        <c:crossAx val="578705600"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8933,17 +8988,38 @@
                   <c:y val="-4.6033636588699092E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.004x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.0521</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.6004</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -9513,17 +9589,38 @@
                   <c:y val="-5.7173041935149722E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0012x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.0289</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.0616</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -10093,17 +10190,32 @@
                   <c:y val="-7.4942217234402253E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0001x(A)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.0128</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.0048</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -10650,11 +10762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157764416"/>
-        <c:axId val="157763264"/>
+        <c:axId val="585016448"/>
+        <c:axId val="585017024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157764416"/>
+        <c:axId val="585016448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10673,7 +10785,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Base Current</a:t>
+                  <a:t>Base Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10695,12 +10807,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157763264"/>
+        <c:crossAx val="585017024"/>
         <c:crossesAt val="1.0000000000000004E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157763264"/>
+        <c:axId val="585017024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10724,7 +10836,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t> Transconductance Gain</a:t>
+                  <a:t> Transconductance Gain (Mhos)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600"/>
               </a:p>
@@ -10747,7 +10859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157764416"/>
+        <c:crossAx val="585016448"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10809,16 +10921,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10839,15 +10951,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10869,16 +10981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10899,16 +11011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10929,16 +11041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10959,16 +11071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11279,8 +11391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="M55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
